--- a/best_picks.xlsx
+++ b/best_picks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="197">
   <si>
     <t>symbol</t>
   </si>
@@ -37,6 +37,9 @@
     <t>overall_ranking</t>
   </si>
   <si>
+    <t>industry</t>
+  </si>
+  <si>
     <t>HLI</t>
   </si>
   <si>
@@ -467,6 +470,141 @@
   </si>
   <si>
     <t>Galmed Pharmaceuticals Ltd.</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>BanksRegional</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Integrated</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Midstream</t>
+  </si>
+  <si>
+    <t>REITOffice</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Midstream</t>
+  </si>
+  <si>
+    <t>SoftwareApplication</t>
+  </si>
+  <si>
+    <t>Shell Companies</t>
+  </si>
+  <si>
+    <t>Application Software</t>
+  </si>
+  <si>
+    <t>Internet Content &amp; Information</t>
+  </si>
+  <si>
+    <t>Telecom Services</t>
+  </si>
+  <si>
+    <t>Consulting &amp; Outsourcing</t>
+  </si>
+  <si>
+    <t>InsuranceProperty &amp; Casualty</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Drilling</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Specialty Business Services</t>
+  </si>
+  <si>
+    <t>Agricultural Inputs</t>
+  </si>
+  <si>
+    <t>Specialty Retail</t>
+  </si>
+  <si>
+    <t>BanksDiversified</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>SoftwareInfrastructure</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas E&amp;P</t>
+  </si>
+  <si>
+    <t>UtilitiesDiversified</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <t>Household &amp; Personal Products</t>
+  </si>
+  <si>
+    <t>Personal Services</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas - Services</t>
+  </si>
+  <si>
+    <t>Auto Parts</t>
+  </si>
+  <si>
+    <t>Airports &amp; Air Services</t>
+  </si>
+  <si>
+    <t>BeveragesNon-Alcoholic</t>
+  </si>
+  <si>
+    <t>REITMortgage</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Other Industrial Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Recreational Vehicles</t>
+  </si>
+  <si>
+    <t>Staffing &amp; Employment Services</t>
+  </si>
+  <si>
+    <t>Electronic Gaming &amp; Multimedia</t>
+  </si>
+  <si>
+    <t>Semiconductor Equipment &amp; Materials</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -824,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,16 +990,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>109.5961068644481</v>
@@ -878,16 +1019,19 @@
       <c r="H2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>422712</v>
@@ -904,16 +1048,19 @@
       <c r="H3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>3.059115810931329</v>
@@ -930,16 +1077,19 @@
       <c r="H4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>1.579266120413253</v>
@@ -956,16 +1106,19 @@
       <c r="H5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2.156734543916242</v>
@@ -982,16 +1135,19 @@
       <c r="H6">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>165.9117647058823</v>
@@ -1008,16 +1164,19 @@
       <c r="H7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>5.975023118843652</v>
@@ -1034,16 +1193,19 @@
       <c r="H8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>13.43438038125126</v>
@@ -1060,16 +1222,19 @@
       <c r="H9">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>2.07298781304406</v>
@@ -1086,16 +1251,19 @@
       <c r="H10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1.126191448601473</v>
@@ -1112,16 +1280,19 @@
       <c r="H11">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>6.53448275862069</v>
@@ -1138,16 +1309,19 @@
       <c r="H12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>0.9854425759025225</v>
@@ -1164,16 +1338,19 @@
       <c r="H13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>0.7054403754064845</v>
@@ -1190,16 +1367,19 @@
       <c r="H14">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>1.939157525768199</v>
@@ -1216,16 +1396,19 @@
       <c r="H15">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>0.8877749810838673</v>
@@ -1242,16 +1425,19 @@
       <c r="H16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>0.8155583437892095</v>
@@ -1268,16 +1454,19 @@
       <c r="H17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>42.86486486486486</v>
@@ -1294,16 +1483,19 @@
       <c r="H18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>64.68529411764706</v>
@@ -1320,16 +1512,19 @@
       <c r="H19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>0.7883677298311444</v>
@@ -1346,16 +1541,19 @@
       <c r="H20">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21">
         <v>0.2972972972972973</v>
@@ -1372,16 +1570,19 @@
       <c r="H21">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>18.24242424242424</v>
@@ -1398,16 +1599,19 @@
       <c r="H22">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>723.5714285714286</v>
@@ -1424,16 +1628,19 @@
       <c r="H23">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>17.81481481481481</v>
@@ -1450,16 +1657,19 @@
       <c r="H24">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>0.3452828903004643</v>
@@ -1476,16 +1686,19 @@
       <c r="H25">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>0.5198602248949746</v>
@@ -1502,16 +1715,19 @@
       <c r="H26">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <v>7.416254416961131</v>
@@ -1528,16 +1744,19 @@
       <c r="H27">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>0.896044338720357</v>
@@ -1554,16 +1773,19 @@
       <c r="H28">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>0.3684289245488745</v>
@@ -1580,16 +1802,19 @@
       <c r="H29">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>0.3302567571139083</v>
@@ -1606,16 +1831,19 @@
       <c r="H30">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31">
         <v>0.5328331460974697</v>
@@ -1632,16 +1860,19 @@
       <c r="H31">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32">
         <v>0.3900235862367265</v>
@@ -1659,15 +1890,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33">
         <v>0.3081933842239186</v>
@@ -1684,16 +1915,19 @@
       <c r="H33">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <v>3.415372670807453</v>
@@ -1710,16 +1944,19 @@
       <c r="H34">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>0.292776799024258</v>
@@ -1736,16 +1973,19 @@
       <c r="H35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36">
         <v>0.7116740848654555</v>
@@ -1762,16 +2002,19 @@
       <c r="H36">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37">
         <v>0.3345294332524061</v>
@@ -1788,16 +2031,19 @@
       <c r="H37">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>0.3851640710867398</v>
@@ -1814,16 +2060,19 @@
       <c r="H38">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <v>0.290935868403714</v>
@@ -1840,16 +2089,19 @@
       <c r="H39">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>0.400281526614026</v>
@@ -1866,16 +2118,19 @@
       <c r="H40">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>0.3838942099019069</v>
@@ -1892,16 +2147,19 @@
       <c r="H41">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>0.2776713640716925</v>
@@ -1918,16 +2176,19 @@
       <c r="H42">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <v>0.2899293245312179</v>
@@ -1944,16 +2205,19 @@
       <c r="H43">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>0.4009069998858094</v>
@@ -1970,16 +2234,19 @@
       <c r="H44">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>0.7031372549019608</v>
@@ -1996,16 +2263,19 @@
       <c r="H45">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46">
         <v>0.6830949432404541</v>
@@ -2022,16 +2292,19 @@
       <c r="H46">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47">
         <v>0.270876672325101</v>
@@ -2048,16 +2321,19 @@
       <c r="H47">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48">
         <v>0.8166189572995332</v>
@@ -2074,16 +2350,19 @@
       <c r="H48">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D49">
         <v>0.2945822814973676</v>
@@ -2100,16 +2379,19 @@
       <c r="H49">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D50">
         <v>0.3114886785067438</v>
@@ -2126,16 +2408,19 @@
       <c r="H50">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D51">
         <v>0.3440767955299142</v>
@@ -2152,16 +2437,19 @@
       <c r="H51">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52">
         <v>0.3437306187928454</v>
@@ -2178,16 +2466,19 @@
       <c r="H52">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53">
         <v>0.2868872927040644</v>
@@ -2204,16 +2495,19 @@
       <c r="H53">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54">
         <v>0.2677259470908857</v>
@@ -2230,16 +2524,19 @@
       <c r="H54">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55">
         <v>0.2784437784437784</v>
@@ -2256,16 +2553,19 @@
       <c r="H55">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56">
         <v>0.2579944149887606</v>
@@ -2282,16 +2582,19 @@
       <c r="H56">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57">
         <v>0.379796979450359</v>
@@ -2308,16 +2611,19 @@
       <c r="H57">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D58">
         <v>0.4291398139130074</v>
@@ -2334,16 +2640,19 @@
       <c r="H58">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D59">
         <v>0.4314009458306563</v>
@@ -2360,16 +2669,19 @@
       <c r="H59">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60">
         <v>0.264691056694877</v>
@@ -2386,16 +2698,19 @@
       <c r="H60">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D61">
         <v>0.3255667799450677</v>
@@ -2412,16 +2727,19 @@
       <c r="H61">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62">
         <v>0.2836483925470716</v>
@@ -2438,16 +2756,19 @@
       <c r="H62">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63">
         <v>0.2695486999350922</v>
@@ -2464,16 +2785,19 @@
       <c r="H63">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>0.3057158560043968</v>
@@ -2490,16 +2814,19 @@
       <c r="H64">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65">
         <v>0.3433571662840276</v>
@@ -2516,16 +2843,19 @@
       <c r="H65">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66">
         <v>0.3415570778463495</v>
@@ -2542,16 +2872,19 @@
       <c r="H66">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>0.273488120950324</v>
@@ -2568,16 +2901,19 @@
       <c r="H67">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D68">
         <v>0.3115998369920748</v>
@@ -2594,16 +2930,19 @@
       <c r="H68">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69">
         <v>0.2885331718556542</v>
@@ -2620,16 +2959,19 @@
       <c r="H69">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70">
         <v>0.2550245771492244</v>
@@ -2646,16 +2988,19 @@
       <c r="H70">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <v>0.2841618628353747</v>
@@ -2672,16 +3017,19 @@
       <c r="H71">
         <v>125</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72">
         <v>0.2635018611363279</v>
@@ -2698,16 +3046,19 @@
       <c r="H72">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73">
         <v>0.2652484476075656</v>
@@ -2723,6 +3074,9 @@
       </c>
       <c r="H73">
         <v>138</v>
+      </c>
+      <c r="I73" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
